--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>App</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Product_Summary-Edit_Product_view-edit_name_of_account-invalid_[MOB_ANDROID]_5</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C95076</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1080,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1272,8 +1278,28 @@
         <v>13</v>
       </c>
     </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G8" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G10" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
   <si>
     <t>App</t>
   </si>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t>C95076</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Search_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Search_Invalid_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C95077</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Amount_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C95078</t>
   </si>
 </sst>
 </file>
@@ -1080,10 +1095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1298,8 +1313,68 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11" customFormat="1" spans="2:7">
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G10" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G12" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
   <si>
     <t>App</t>
   </si>
@@ -123,6 +123,48 @@
   </si>
   <si>
     <t>C95078</t>
+  </si>
+  <si>
+    <t>Product_Summary_Edit_Product_View[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C95079</t>
+  </si>
+  <si>
+    <t>Domestic_Account_Filter_By_Type[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C95080</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions-Filter-Multiple_Filter_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C95081</t>
+  </si>
+  <si>
+    <t>Currente_Accounts-Transactions-Filter-Clear-Filter[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C95082</t>
+  </si>
+  <si>
+    <t>Product_Summary-Edit_Product_view-edit_name_of_account_[MOB_ANDROID]_1</t>
+  </si>
+  <si>
+    <t>C95083</t>
+  </si>
+  <si>
+    <t>Product_Summary-Edit_Product_view-edit_name_of_card_[MOB_ANDROID]_1</t>
+  </si>
+  <si>
+    <t>C95084</t>
+  </si>
+  <si>
+    <t>Product_Summary-Edit_Product_view-edit_name_of_deposit_[MOB_ANDROID]_1</t>
+  </si>
+  <si>
+    <t>C95085</t>
   </si>
 </sst>
 </file>
@@ -1095,10 +1137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1373,8 +1415,148 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G12" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G13" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="51">
   <si>
     <t>App</t>
   </si>
@@ -165,6 +165,24 @@
   </si>
   <si>
     <t>C95085</t>
+  </si>
+  <si>
+    <t>Term_Deposits_Lists_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C95086</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts_Transactions_Filter_By_Date_CustomDateRange_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C95087</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts_Transactions_Details_Transaction_Confirmation_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C95088</t>
   </si>
 </sst>
 </file>
@@ -1137,10 +1155,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1555,8 +1573,68 @@
         <v>13</v>
       </c>
     </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G13" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G20" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="58">
   <si>
     <t>App</t>
   </si>
@@ -77,112 +77,133 @@
     <t>Product_Summary-Loan_List_[MOB_ANDROID]</t>
   </si>
   <si>
-    <t>C93523</t>
+    <t>C70780</t>
   </si>
   <si>
     <t>Product_Summary_Sorting_on_the_Product_Summary_[ANDROID]</t>
   </si>
   <si>
-    <t>C93524</t>
+    <t>C70781</t>
   </si>
   <si>
     <t>Product_Summary-Edit_Product_view-edit_name_of_account-invalid_[MOB_ANDROID]</t>
   </si>
   <si>
-    <t>C93511</t>
+    <t>C70782</t>
   </si>
   <si>
     <t>Product_Summary-Edit_Product_view-edit_name_of_account-invalid_[MOB_ANDROID]_2</t>
   </si>
   <si>
+    <t>C70783</t>
+  </si>
+  <si>
     <t>Product_Summary-Edit_Product_view-edit_name_of_account-invalid_[MOB_ANDROID]_3</t>
   </si>
   <si>
+    <t>C70784</t>
+  </si>
+  <si>
     <t>Product_Summary-Edit_Product_view-edit_name_of_account-invalid_[MOB_ANDROID]_4</t>
   </si>
   <si>
+    <t>C70785</t>
+  </si>
+  <si>
     <t>Product_Summary-Edit_Product_view-edit_name_of_account-invalid_[MOB_ANDROID]_5</t>
   </si>
   <si>
+    <t>C70786</t>
+  </si>
+  <si>
     <t>Current_Accounts-Transactions_Details-Create_Confirmation_[MOB_ANDROID]</t>
   </si>
   <si>
-    <t>C95076</t>
+    <t>C70787</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Transactions-Search_[MOB_ANDROID]</t>
   </si>
   <si>
+    <t>C70788</t>
+  </si>
+  <si>
     <t>Current_Domestic_Accounts-Transactions-Search_Invalid_[MOB_ANDROID]</t>
   </si>
   <si>
-    <t>C95077</t>
+    <t>C70789</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Transactions-Filter_By_Amount_[MOB_ANDROID]</t>
   </si>
   <si>
-    <t>C95078</t>
+    <t>C70790</t>
   </si>
   <si>
     <t>Product_Summary_Edit_Product_View[MOB_ANDROID]</t>
   </si>
   <si>
-    <t>C95079</t>
+    <t>C70791</t>
   </si>
   <si>
     <t>Domestic_Account_Filter_By_Type[MOB_ANDROID]</t>
   </si>
   <si>
-    <t>C95080</t>
+    <t>C70792</t>
   </si>
   <si>
     <t>Current_Accounts-Transactions-Filter-Multiple_Filter_[MOB_ANDROID]</t>
   </si>
   <si>
-    <t>C95081</t>
+    <t>C70793</t>
   </si>
   <si>
     <t>Currente_Accounts-Transactions-Filter-Clear-Filter[MOB_ANDROID]</t>
   </si>
   <si>
-    <t>C95082</t>
+    <t>C70794</t>
   </si>
   <si>
     <t>Product_Summary-Edit_Product_view-edit_name_of_account_[MOB_ANDROID]_1</t>
   </si>
   <si>
-    <t>C95083</t>
+    <t>C70795</t>
   </si>
   <si>
     <t>Product_Summary-Edit_Product_view-edit_name_of_card_[MOB_ANDROID]_1</t>
   </si>
   <si>
-    <t>C95084</t>
+    <t>C70796</t>
   </si>
   <si>
     <t>Product_Summary-Edit_Product_view-edit_name_of_deposit_[MOB_ANDROID]_1</t>
   </si>
   <si>
-    <t>C95085</t>
+    <t>C70797</t>
   </si>
   <si>
     <t>Term_Deposits_Lists_[MOB_ANDROID]</t>
   </si>
   <si>
-    <t>C95086</t>
+    <t>C70798</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts_Transactions_Filter_By_Date_CustomDateRange_[MOB_ANDROID]</t>
   </si>
   <si>
-    <t>C95087</t>
+    <t>C70799</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts_Transactions_Details_Transaction_Confirmation_[MOB_ANDROID]</t>
   </si>
   <si>
-    <t>C95088</t>
+    <t>C70800</t>
+  </si>
+  <si>
+    <t>Current_Accounts_Transactions_Details_Transaction_Confirmation_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70801</t>
   </si>
 </sst>
 </file>
@@ -828,14 +849,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,6 +910,18 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1155,10 +1189,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1213,7 +1247,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1233,7 +1270,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1253,7 +1293,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1273,12 +1316,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -1293,12 +1339,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -1313,12 +1362,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -1333,12 +1385,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -1353,12 +1408,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -1373,12 +1431,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="2:7">
+    <row r="11" customFormat="1" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -1393,12 +1454,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -1413,12 +1477,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
@@ -1433,12 +1500,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
-      <c r="B14" t="s">
-        <v>31</v>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
@@ -1453,12 +1523,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" t="s">
-        <v>33</v>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>10</v>
@@ -1473,12 +1546,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
-      <c r="B16" t="s">
-        <v>35</v>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>10</v>
@@ -1493,12 +1569,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" t="s">
-        <v>37</v>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>10</v>
@@ -1513,12 +1592,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" t="s">
-        <v>39</v>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>10</v>
@@ -1533,12 +1615,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" t="s">
-        <v>41</v>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>10</v>
@@ -1553,12 +1638,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" t="s">
-        <v>43</v>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>10</v>
@@ -1573,12 +1661,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" t="s">
-        <v>45</v>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>10</v>
@@ -1593,12 +1684,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" t="s">
-        <v>47</v>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>10</v>
@@ -1613,12 +1707,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" t="s">
-        <v>49</v>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>10</v>
@@ -1633,10 +1730,36 @@
         <v>13</v>
       </c>
     </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G20" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G23" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
+  <conditionalFormatting sqref="C$1:C$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -182,7 +182,7 @@
     <t>C70797</t>
   </si>
   <si>
-    <t>Term_Deposits_Lists_[MOB_ANDROID]</t>
+    <t>Product_Summary-Term_Deposits_Lists_[MOB_ANDROID]</t>
   </si>
   <si>
     <t>C70798</t>
@@ -849,7 +849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -857,7 +857,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1192,7 +1191,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C24"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1504,7 +1503,7 @@
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1527,7 +1526,7 @@
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1550,7 +1549,7 @@
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1573,7 +1572,7 @@
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1596,7 +1595,7 @@
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1619,7 +1618,7 @@
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1642,7 +1641,7 @@
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1665,7 +1664,7 @@
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1688,7 +1687,7 @@
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1711,7 +1710,7 @@
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1734,7 +1733,7 @@
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1754,7 +1753,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G23" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G24" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="C$1:C$1048576">

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="60">
   <si>
     <t>App</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>C70801</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-List_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70802</t>
   </si>
 </sst>
 </file>
@@ -1188,10 +1194,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1752,6 +1758,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G24" etc:filterBottomFollowUsedRange="0">
     <extLst/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="64">
   <si>
     <t>App</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>C70802</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Amount_Invalid_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70803</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-List_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70804</t>
   </si>
 </sst>
 </file>
@@ -1194,10 +1206,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1781,8 +1793,54 @@
         <v>13</v>
       </c>
     </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G24" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G25" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="C$1:C$1048576">

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="66">
   <si>
     <t>App</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>C70804</t>
+  </si>
+  <si>
+    <t>Product_Summary-Savings_Accounts_List_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70805</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1212,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1839,8 +1845,31 @@
         <v>13</v>
       </c>
     </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G25" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G27" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="C$1:C$1048576">

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="68">
   <si>
     <t>App</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>C70805</t>
+  </si>
+  <si>
+    <t>Credit_Cards_Details_Card_Details_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70806</t>
   </si>
 </sst>
 </file>
@@ -1212,10 +1218,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1868,6 +1874,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G27" etc:filterBottomFollowUsedRange="0">
     <extLst/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="71">
   <si>
     <t>App</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>C70806</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70807</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Product_Details-Financial-Details_Is_Not_Visible_[MOB_ANDROID]</t>
   </si>
 </sst>
 </file>
@@ -879,7 +888,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -887,6 +896,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,10 +1228,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1897,12 +1907,55 @@
         <v>13</v>
       </c>
     </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="2:7">
+      <c r="B31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G27" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G29" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="C$1:C$1048576">
+  <conditionalFormatting sqref="C31">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C30 C32:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="70">
   <si>
     <t>App</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>C70806</t>
+  </si>
+  <si>
+    <t>Saving_Accounts_Details_Financial_Details[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70807</t>
   </si>
 </sst>
 </file>
@@ -1218,10 +1224,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1897,8 +1903,31 @@
         <v>13</v>
       </c>
     </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G27" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G29" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="C$1:C$1048576">

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="73">
   <si>
     <t>App</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>Current_Foreign_Accounts-Product_Details-Financial-Details_Is_Not_Visible_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>Product_Summary-Credit_Card_List_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70808</t>
   </si>
 </sst>
 </file>
@@ -1228,10 +1234,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1907,7 +1913,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
       <c r="B30" s="5" t="s">
         <v>68</v>
       </c>
@@ -1927,7 +1936,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="2:7">
+    <row r="31" customFormat="1" spans="1:7">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
       <c r="B31" s="5" t="s">
         <v>70</v>
       </c>
@@ -1947,14 +1959,37 @@
         <v>13</v>
       </c>
     </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G29" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G31" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="C31:C32">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C30 C32:C1048576">
+  <conditionalFormatting sqref="C1:C30 C33:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="75">
   <si>
     <t>App</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>C70808</t>
+  </si>
+  <si>
+    <t>Product_Summary-Term_Deposit_List_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70809</t>
   </si>
 </sst>
 </file>
@@ -1234,10 +1240,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1982,14 +1988,37 @@
         <v>13</v>
       </c>
     </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G31" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="C31:C32">
+  <conditionalFormatting sqref="C31:C33">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C30 C33:C1048576">
+  <conditionalFormatting sqref="C1:C30 C34:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="77">
   <si>
     <t>App</t>
   </si>
@@ -251,10 +251,16 @@
     <t>C70808</t>
   </si>
   <si>
-    <t>Product_Summary-Term_Deposit_List_[MOB_ANDROID]</t>
+    <t>Product_Summary-Term_Deposit_Accounts_Details_Account_Details_[MOB_ANDROID]</t>
   </si>
   <si>
     <t>C70809</t>
+  </si>
+  <si>
+    <t>Product_Summary-Term_Deposits_Accounts_Details_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70810</t>
   </si>
 </sst>
 </file>
@@ -1240,10 +1246,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2011,14 +2017,37 @@
         <v>13</v>
       </c>
     </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G31" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="C31:C33">
+  <conditionalFormatting sqref="C31:C34">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C30 C34:C1048576">
+  <conditionalFormatting sqref="C1:C30 C35:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="84">
   <si>
     <t>App</t>
   </si>
@@ -261,6 +261,27 @@
   </si>
   <si>
     <t>C70810</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Details-Account_Details_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70811</t>
+  </si>
+  <si>
+    <t>Product_Summary-Current_Foreign_Accounts_List_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70812</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter-Invalid_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70813</t>
   </si>
 </sst>
 </file>
@@ -1246,10 +1267,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2040,15 +2061,98 @@
         <v>13</v>
       </c>
     </row>
+    <row r="35" spans="2:7">
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="2:7">
+      <c r="B37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G31" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G35" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="C31:C34">
+  <conditionalFormatting sqref="C31:C36">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C38">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C30 C35:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="C1:C30 C39:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="86">
   <si>
     <t>App</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>C70813</t>
+  </si>
+  <si>
+    <t>Payments_Domestic_Payments_Cancel_Button_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70814</t>
   </si>
 </sst>
 </file>
@@ -1267,10 +1273,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2061,7 +2067,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
       <c r="B35" t="s">
         <v>77</v>
       </c>
@@ -2081,7 +2090,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
       <c r="B36" s="5" t="s">
         <v>79</v>
       </c>
@@ -2101,7 +2113,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="2:7">
+    <row r="37" customFormat="1" spans="1:7">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
       <c r="B37" s="5" t="s">
         <v>81</v>
       </c>
@@ -2121,7 +2136,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
       <c r="B38" s="5" t="s">
         <v>82</v>
       </c>
@@ -2141,17 +2159,40 @@
         <v>13</v>
       </c>
     </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G35" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G38" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="C31:C36">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C38">
+  <conditionalFormatting sqref="C37:C39">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C30 C39:C1048576">
+  <conditionalFormatting sqref="C1:C30 C40:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="90">
   <si>
     <t>App</t>
   </si>
@@ -288,6 +288,18 @@
   </si>
   <si>
     <t>C70814</t>
+  </si>
+  <si>
+    <t>Credit_cards_transactions_filter_by_date(custom_date_range)_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70815</t>
+  </si>
+  <si>
+    <t>Credit_cards_transactions_filter_invalid_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70816</t>
   </si>
 </sst>
 </file>
@@ -1273,10 +1285,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2182,17 +2194,63 @@
         <v>13</v>
       </c>
     </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G38" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G39" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="C31:C36">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C39">
+  <conditionalFormatting sqref="C37:C41">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C30 C40:C1048576">
+  <conditionalFormatting sqref="C1:C30 C42:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="93">
   <si>
     <t>App</t>
   </si>
@@ -300,6 +300,15 @@
   </si>
   <si>
     <t>C70816</t>
+  </si>
+  <si>
+    <t>Credit_cards-Transactions-Filter-Filter_By_Type_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>Credit_cards-Transactions-Filter-Filter_By_Amount_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>Credit_cards-Transactions-Filter-Filter_By_Amount_invalid_[MOB_ANDROID]</t>
   </si>
 </sst>
 </file>
@@ -1285,10 +1294,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2240,18 +2249,96 @@
         <v>13</v>
       </c>
     </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G39" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G41" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="C31:C36">
+  <conditionalFormatting sqref="C42">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C41">
+  <conditionalFormatting sqref="C44">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C30 C42:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="C31:C36">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C41">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C30 C45:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="95">
   <si>
     <t>App</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>Credit_cards-Transactions-Filter-Filter_By_Amount_invalid_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>Product_Summary-Term_Deposit_List_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70817</t>
   </si>
 </sst>
 </file>
@@ -954,7 +960,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -962,7 +968,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1294,10 +1301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1928,10 +1935,10 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1951,10 +1958,10 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1974,10 +1981,10 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1997,10 +2004,10 @@
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:7">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2020,10 +2027,10 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2043,10 +2050,10 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2066,10 +2073,10 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2089,10 +2096,10 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2112,10 +2119,10 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2135,10 +2142,10 @@
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:7">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2158,10 +2165,10 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2181,10 +2188,10 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2204,10 +2211,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2227,10 +2234,10 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2250,10 +2257,10 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="A42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2273,10 +2280,10 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2296,10 +2303,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2318,8 +2325,31 @@
         <v>13</v>
       </c>
     </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G41" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G44" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="C42">
@@ -2328,16 +2358,16 @@
   <conditionalFormatting sqref="C43">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C31:C36">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C41">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C30 C45:C1048576">
+  <conditionalFormatting sqref="C44:C45">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C30 C46:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="97">
   <si>
     <t>App</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>C70817</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts_Product_Details_Acccount_Details_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70818</t>
   </si>
 </sst>
 </file>
@@ -960,15 +966,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1301,10 +1305,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1935,10 +1939,10 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1958,10 +1962,10 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1981,10 +1985,10 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2004,10 +2008,10 @@
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:7">
-      <c r="A31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2027,10 +2031,10 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2050,10 +2054,10 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2073,10 +2077,10 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2096,10 +2100,10 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2119,10 +2123,10 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2142,10 +2146,10 @@
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:7">
-      <c r="A37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2165,10 +2169,10 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2188,10 +2192,10 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2211,10 +2215,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="5" t="s">
+      <c r="A40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2234,10 +2238,10 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2257,10 +2261,10 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2280,10 +2284,10 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2303,10 +2307,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2326,10 +2330,10 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="5" t="s">
+      <c r="A45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -2348,8 +2352,31 @@
         <v>13</v>
       </c>
     </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G44" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G45" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="C42">
@@ -2364,10 +2391,10 @@
   <conditionalFormatting sqref="C37:C41">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44:C45">
+  <conditionalFormatting sqref="C44:C46">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C30 C46:C1048576">
+  <conditionalFormatting sqref="C1:C30 C47:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="98">
   <si>
     <t>App</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>C70818</t>
+  </si>
+  <si>
+    <t>Payments_Own_Account_Transfer-Flow_Disruption_Cancel/Back_[MOB_ANDROID]</t>
   </si>
 </sst>
 </file>
@@ -1305,10 +1308,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2375,27 +2378,53 @@
         <v>13</v>
       </c>
     </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G45" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G46" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="C42">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
+  <conditionalFormatting sqref="C47">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C36">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C41">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44:C46">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C36">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C41">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44:C46">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C30 C47:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  <conditionalFormatting sqref="C1:C30 C48:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="100">
   <si>
     <t>App</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>Payments_Own_Account_Transfer-Flow_Disruption_Cancel/Back_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>Credit_cards-Transactions-Filter_Multiple_Filter_Invalid_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70819</t>
   </si>
 </sst>
 </file>
@@ -969,7 +975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -977,6 +983,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1308,10 +1315,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2382,7 +2389,7 @@
       <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2401,8 +2408,31 @@
         <v>13</v>
       </c>
     </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G46" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G47" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="C42">
@@ -2410,9 +2440,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C36">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
@@ -2423,7 +2450,10 @@
   <conditionalFormatting sqref="C44:C46">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C30 C48:C1048576">
+  <conditionalFormatting sqref="C47:C48">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C30 C49:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="102">
   <si>
     <t>App</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>C70819</t>
+  </si>
+  <si>
+    <t>Payments-Scan_And_Pay-Camera_Permission_Reject_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70820</t>
   </si>
 </sst>
 </file>
@@ -975,7 +981,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -983,7 +989,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1315,10 +1320,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2389,7 +2394,7 @@
       <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2412,7 +2417,7 @@
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2431,8 +2436,31 @@
         <v>13</v>
       </c>
     </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G47" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G48" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="C42">
@@ -2450,10 +2478,10 @@
   <conditionalFormatting sqref="C44:C46">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47:C48">
+  <conditionalFormatting sqref="C47:C49">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C30 C49:C1048576">
+  <conditionalFormatting sqref="C1:C30 C50:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/execute.xlsx
+++ b/testdata/execute.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="104">
   <si>
     <t>App</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>C70820</t>
+  </si>
+  <si>
+    <t>Saving_Accounts_Details_Financial_Details_[MOB_ANDROID]</t>
+  </si>
+  <si>
+    <t>C70821</t>
   </si>
 </sst>
 </file>
@@ -1320,10 +1326,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2459,8 +2465,28 @@
         <v>13</v>
       </c>
     </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G48" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G49" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="C42">
@@ -2478,10 +2504,10 @@
   <conditionalFormatting sqref="C44:C46">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47:C49">
+  <conditionalFormatting sqref="C47:C50">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C30 C50:C1048576">
+  <conditionalFormatting sqref="C1:C30 C51:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
